--- a/crudo/Panichella-7d.xlsx
+++ b/crudo/Panichella-7d.xlsx
@@ -576,22 +576,22 @@
         <v>23</v>
       </c>
       <c r="F2">
-        <v>18086.86</v>
+        <v>18099.97</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="H2">
-        <v>18086.86</v>
+        <v>18099.97</v>
       </c>
       <c r="I2">
-        <v>4255</v>
+        <v>4257</v>
       </c>
       <c r="J2">
         <v>2832</v>
       </c>
       <c r="K2">
-        <v>1.502472</v>
+        <v>1.503178</v>
       </c>
       <c r="L2" t="s">
         <v>24</v>
@@ -600,7 +600,7 @@
         <v>1</v>
       </c>
       <c r="O2">
-        <v>18086.86</v>
+        <v>18099.97</v>
       </c>
       <c r="P2">
         <v>32</v>
@@ -831,13 +831,13 @@
         <v>4028.27</v>
       </c>
       <c r="I8">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="J8">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="K8">
-        <v>1.331967</v>
+        <v>1.331288</v>
       </c>
       <c r="L8" t="s">
         <v>24</v>
@@ -861,7 +861,7 @@
         <v>26</v>
       </c>
       <c r="T8">
-        <v>23.692308</v>
+        <v>23.655914</v>
       </c>
     </row>
     <row r="9" spans="1:20">
